--- a/biology/Botanique/Érable_champêtre/Érable_champêtre.xlsx
+++ b/biology/Botanique/Érable_champêtre/Érable_champêtre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rable_champ%C3%AAtre</t>
+          <t>Érable_champêtre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acer campestre
 L'Érable champêtre (Acer campestre) est une espèce de plantes à fleurs du genre Acer appartenant à la famille des Acéracées (Sapindaceae selon la classification APG III). C'est un arbre classé dans la section Platanoidea de la classification des érables.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89rable_champ%C3%AAtre</t>
+          <t>Érable_champêtre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre pouvant atteindre 10 mètres[1], à écorce gris pâle, fissurée, à petites feuilles caduques simples à plusieurs lobes arrondis, à fleurs verdâtres apparaissant avant les feuilles. Sa durée de vie peut atteindre 150 ans. Les fruits sont des samares doubles (disamares) à ailes horizontales.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre pouvant atteindre 10 mètres, à écorce gris pâle, fissurée, à petites feuilles caduques simples à plusieurs lobes arrondis, à fleurs verdâtres apparaissant avant les feuilles. Sa durée de vie peut atteindre 150 ans. Les fruits sont des samares doubles (disamares) à ailes horizontales.
 Les rameaux des jeunes arbres présentent souvent une écorce liégeuse particulièrement côtelée, isolante, cannelée et apte à faire des perchoirs pour les gallinacées pondeuses d'où le nom populaire de bois de poules.[réf. nécessaire]
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89rable_champ%C3%AAtre</t>
+          <t>Érable_champêtre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est commun dans toute l'Europe depuis le sud de la Suède. C'est le seul érable indigène du sud de l'Angleterre et il est naturalisé en Irlande.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89rable_champ%C3%AAtre</t>
+          <t>Érable_champêtre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Type d'inflorescence : corymbe
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Type d'inflorescence : corymbe
 Répartition des sexes : polygame
 Type de pollinisation : anémogame
 Période de floraison : mars / avril
@@ -590,58 +608,237 @@
 Habitat type : bois caducifoliés médioeuropéens, planitiaires-collinéens, neutrophiles
 Aire de répartition : eurasiatique méridional
 Données d'après : Julve, Ph., 1998 ff. - Baseflor. Index botanique, écologique et chorologique de la flore de France. Version : 23 avril 2004. 
-Composants chimiques
-Phytostérols, choline, allantoïne, tanins
-Données [autécologiques
-Espèce héliophile ou de demi-ombre ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Érable_champêtre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89rable_champ%C3%AAtre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Composants chimiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phytostérols, choline, allantoïne, tanins
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Érable_champêtre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89rable_champ%C3%AAtre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Données [autécologiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Espèce héliophile ou de demi-ombre ;
 espèce mésoxérophile à mésophile ;
 caractère indicateur : calcicline ;
 humus : mull carbonaté a mull mésotrophe (optinum : mull eutrophe); sols riches en bases et en azote; pH basique à neutre ;
-matériaux (purs ou caillouteux) : colluvions limoneuses, argiles de décarbonation[2].</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89rable_champ%C3%AAtre</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89rable_champ%C3%AAtre</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+matériaux (purs ou caillouteux) : colluvions limoneuses, argiles de décarbonation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Érable_champêtre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89rable_champ%C3%AAtre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Horticoles
-Utilisé dans les haies de bocage
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Horticoles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Utilisé dans les haies de bocage
 Utilisé en haie taillée
-Utilisé en art du bonsaï
-Pharmacopée
+Utilisé en art du bonsaï</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Érable_champêtre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89rable_champ%C3%AAtre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pharmacopée</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 * Partie utilisée : Écorce
 Mode d'emploi : Décoction
 Propriété : Astringente, légèrement
 Son action astringente le fait utiliser en cosmétique (peaux couperosées) 
-[réf. nécessaire]
-Consommation humaine
-Avec la sève sucrée, on prépare un sirop. Les jeunes feuilles se consomment dans les salades mêlées[3].
+[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Érable_champêtre</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89rable_champ%C3%AAtre</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Consommation humaine</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec la sève sucrée, on prépare un sirop. Les jeunes feuilles se consomment dans les salades mêlées.
 Plante mellifère.
-Autres usages
-ébénisterie, marqueterie. Les racines noueuses furent utilisées pour fabriquer des pipes[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Érable_champêtre</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89rable_champ%C3%AAtre</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres usages</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ébénisterie, marqueterie. Les racines noueuses furent utilisées pour fabriquer des pipes.
 menuiserie (résiste aux insectes)
 Bon bois de chauffage, à haute densité[réf. nécessaire].</t>
         </is>
